--- a/exampleProblems/Problem90/Problem90.xlsx
+++ b/exampleProblems/Problem90/Problem90.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://durhamuniversity-my.sharepoint.com/personal/vsmw51_durham_ac_uk/Documents/projects/programming/2022/python/python/rdkit37/projects/simpleNMR/exampleProblems/Problem90/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{88114AF2-AA7D-144A-9938-B067CAFFF0E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8E87938A-B6D2-4312-9CF2-B41C645783CD}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{88114AF2-AA7D-144A-9938-B067CAFFF0E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{08026623-BCC5-46CD-A9B5-6F362FF131E4}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7275" yWindow="990" windowWidth="20295" windowHeight="13620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="molecule" sheetId="9" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="69">
   <si>
     <t>Name</t>
   </si>
@@ -244,6 +244,9 @@
   </si>
   <si>
     <t>C18H16O8</t>
+  </si>
+  <si>
+    <t>smiles</t>
   </si>
 </sst>
 </file>
@@ -712,10 +715,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView zoomScale="155" zoomScaleNormal="155" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" zoomScale="155" zoomScaleNormal="155" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -723,12 +726,15 @@
     <col min="2" max="2" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="B1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -745,7 +751,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
@@ -5241,6 +5247,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100155B07917A39914F9664B9093559A33D" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="fbeff89c08116489e82681c46e7ae15d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f6191221-55a2-427d-afce-6bfcc029a585" xmlns:ns4="b60d6f15-5eb1-4c0b-bb71-d899d3bf026f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a905948312a67a3512ded1d64743b24d" ns3:_="" ns4:_="">
     <xsd:import namespace="f6191221-55a2-427d-afce-6bfcc029a585"/>
@@ -5457,22 +5478,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44668820-0664-4E62-A660-376AF03334EF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="b60d6f15-5eb1-4c0b-bb71-d899d3bf026f"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="f6191221-55a2-427d-afce-6bfcc029a585"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9421959D-9476-4FEC-BDFE-1367083D3EBE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CCEF473A-5319-4ED2-888F-44217AC86176}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5489,29 +5520,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9421959D-9476-4FEC-BDFE-1367083D3EBE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44668820-0664-4E62-A660-376AF03334EF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="b60d6f15-5eb1-4c0b-bb71-d899d3bf026f"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="f6191221-55a2-427d-afce-6bfcc029a585"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/exampleProblems/Problem90/Problem90.xlsx
+++ b/exampleProblems/Problem90/Problem90.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://durhamuniversity-my.sharepoint.com/personal/vsmw51_durham_ac_uk/Documents/projects/programming/2022/python/python/rdkit37/projects/simpleNMR/exampleProblems/Problem90/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{88114AF2-AA7D-144A-9938-B067CAFFF0E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{08026623-BCC5-46CD-A9B5-6F362FF131E4}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="11_676B503350859915568A8F60B6726100975BDEA5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9A2AE0BA-506E-C142-AFFB-5D98245F5CA1}"/>
   <bookViews>
-    <workbookView xWindow="7275" yWindow="990" windowWidth="20295" windowHeight="13620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7280" yWindow="1000" windowWidth="20300" windowHeight="13620" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="molecule" sheetId="9" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="HMBC" sheetId="8" r:id="rId5"/>
     <sheet name="C13_1D" sheetId="2" r:id="rId6"/>
     <sheet name="H1_pureshift" sheetId="3" r:id="rId7"/>
+    <sheet name="NOESY" sheetId="10" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,6 +34,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -40,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="70">
   <si>
     <t>Name</t>
   </si>
@@ -247,6 +250,9 @@
   </si>
   <si>
     <t>smiles</t>
+  </si>
+  <si>
+    <t>O=C(/C=C/c1ccc(O)c(O)c1)OC(CC2=CC(O)C(O)C=C2)C(=O)O</t>
   </si>
 </sst>
 </file>
@@ -717,13 +723,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="155" zoomScaleNormal="155" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView zoomScale="155" zoomScaleNormal="155" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="13.85546875" customWidth="1"/>
+    <col min="2" max="2" width="13.83203125" customWidth="1"/>
+    <col min="3" max="3" width="53.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -740,6 +747,9 @@
       </c>
       <c r="B2" t="s">
         <v>67</v>
+      </c>
+      <c r="C2" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -755,13 +765,13 @@
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="32.7109375" customWidth="1"/>
+    <col min="8" max="8" width="32.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="16.5">
+    <row r="1" spans="1:9" ht="17">
       <c r="A1" s="10"/>
       <c r="B1" s="10" t="s">
         <v>0</v>
@@ -788,7 +798,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="16.5">
+    <row r="2" spans="1:9" ht="17">
       <c r="A2" s="10">
         <v>1</v>
       </c>
@@ -817,7 +827,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="16.5">
+    <row r="3" spans="1:9" ht="17">
       <c r="A3" s="10">
         <v>2</v>
       </c>
@@ -846,7 +856,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="16.5">
+    <row r="4" spans="1:9" ht="17">
       <c r="A4" s="10">
         <v>3</v>
       </c>
@@ -875,7 +885,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="16.5">
+    <row r="5" spans="1:9" ht="17">
       <c r="A5" s="10">
         <v>4</v>
       </c>
@@ -904,7 +914,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="16.5">
+    <row r="6" spans="1:9" ht="17">
       <c r="A6" s="10">
         <v>5</v>
       </c>
@@ -933,7 +943,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="16.5">
+    <row r="7" spans="1:9" ht="17">
       <c r="A7" s="10">
         <v>6</v>
       </c>
@@ -962,7 +972,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="16.5">
+    <row r="8" spans="1:9" ht="17">
       <c r="A8" s="10">
         <v>7</v>
       </c>
@@ -991,7 +1001,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="16.5">
+    <row r="9" spans="1:9" ht="17">
       <c r="A9" s="10">
         <v>8</v>
       </c>
@@ -1020,7 +1030,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="16.5">
+    <row r="10" spans="1:9" ht="17">
       <c r="A10" s="10">
         <v>9</v>
       </c>
@@ -1049,7 +1059,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="16.5">
+    <row r="11" spans="1:9" ht="17">
       <c r="A11" s="10">
         <v>10</v>
       </c>
@@ -1078,7 +1088,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="16.5">
+    <row r="12" spans="1:9" ht="17">
       <c r="A12" s="10">
         <v>11</v>
       </c>
@@ -1107,7 +1117,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="16.5">
+    <row r="13" spans="1:9" ht="17">
       <c r="A13" s="10">
         <v>12</v>
       </c>
@@ -1136,7 +1146,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="16.5">
+    <row r="14" spans="1:9" ht="17">
       <c r="A14" s="10">
         <v>13</v>
       </c>
@@ -1165,7 +1175,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="16.5">
+    <row r="15" spans="1:9" ht="17">
       <c r="A15" s="10">
         <v>14</v>
       </c>
@@ -1194,7 +1204,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="16.5">
+    <row r="16" spans="1:9" ht="17">
       <c r="A16" s="10">
         <v>15</v>
       </c>
@@ -1223,7 +1233,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="16.5">
+    <row r="17" spans="1:9" ht="17">
       <c r="A17" s="10">
         <v>16</v>
       </c>
@@ -1277,9 +1287,9 @@
       <selection activeCell="B2" sqref="B2:C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13" ht="16.5">
+    <row r="1" spans="1:13" ht="17">
       <c r="A1" s="11"/>
       <c r="B1" s="11" t="s">
         <v>18</v>
@@ -1312,7 +1322,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="16.5">
+    <row r="2" spans="1:13" ht="17">
       <c r="A2" s="11">
         <v>1</v>
       </c>
@@ -1344,7 +1354,7 @@
       <c r="K2" s="11"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="1:13" ht="16.5">
+    <row r="3" spans="1:13" ht="17">
       <c r="A3" s="11">
         <v>2</v>
       </c>
@@ -1376,7 +1386,7 @@
       <c r="K3" s="11"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="1:13" ht="16.5">
+    <row r="4" spans="1:13" ht="17">
       <c r="A4" s="11">
         <v>3</v>
       </c>
@@ -1408,7 +1418,7 @@
       <c r="K4" s="11"/>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="1:13" ht="16.5">
+    <row r="5" spans="1:13" ht="17">
       <c r="A5" s="11">
         <v>4</v>
       </c>
@@ -1440,7 +1450,7 @@
       <c r="K5" s="11"/>
       <c r="M5" s="1"/>
     </row>
-    <row r="6" spans="1:13" ht="16.5">
+    <row r="6" spans="1:13" ht="17">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -1471,7 +1481,7 @@
       <c r="J6" s="11"/>
       <c r="K6" s="11"/>
     </row>
-    <row r="7" spans="1:13" ht="16.5">
+    <row r="7" spans="1:13" ht="17">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -1503,7 +1513,7 @@
       <c r="K7" s="11"/>
       <c r="M7" s="1"/>
     </row>
-    <row r="8" spans="1:13" ht="16.5">
+    <row r="8" spans="1:13" ht="17">
       <c r="A8" s="11">
         <v>7</v>
       </c>
@@ -1535,7 +1545,7 @@
       <c r="K8" s="11"/>
       <c r="M8" s="1"/>
     </row>
-    <row r="9" spans="1:13" ht="16.5">
+    <row r="9" spans="1:13" ht="17">
       <c r="A9" s="11">
         <v>8</v>
       </c>
@@ -1567,7 +1577,7 @@
       <c r="K9" s="11"/>
       <c r="M9" s="1"/>
     </row>
-    <row r="10" spans="1:13" ht="16.5">
+    <row r="10" spans="1:13" ht="17">
       <c r="A10" s="11">
         <v>9</v>
       </c>
@@ -1599,7 +1609,7 @@
       <c r="K10" s="11"/>
       <c r="M10" s="1"/>
     </row>
-    <row r="11" spans="1:13" ht="16.5">
+    <row r="11" spans="1:13" ht="17">
       <c r="A11" s="11">
         <v>10</v>
       </c>
@@ -1631,7 +1641,7 @@
       <c r="K11" s="11"/>
       <c r="M11" s="1"/>
     </row>
-    <row r="12" spans="1:13" ht="16.5">
+    <row r="12" spans="1:13" ht="17">
       <c r="A12" s="11">
         <v>11</v>
       </c>
@@ -1662,7 +1672,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="11"/>
     </row>
-    <row r="13" spans="1:13" ht="16.5">
+    <row r="13" spans="1:13" ht="17">
       <c r="A13" s="11">
         <v>12</v>
       </c>
@@ -1734,12 +1744,12 @@
   <dimension ref="A1:V40"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K20" sqref="A1:K20"/>
+      <selection sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:22" ht="16.5">
+    <row r="1" spans="1:22" ht="17">
       <c r="A1" s="11"/>
       <c r="B1" s="11" t="s">
         <v>18</v>
@@ -1783,7 +1793,7 @@
       <c r="U1" s="3"/>
       <c r="V1" s="4"/>
     </row>
-    <row r="2" spans="1:22" ht="16.5">
+    <row r="2" spans="1:22" ht="17">
       <c r="A2" s="11">
         <v>1</v>
       </c>
@@ -1816,7 +1826,7 @@
       <c r="U2" s="1"/>
       <c r="V2" s="6"/>
     </row>
-    <row r="3" spans="1:22" ht="16.5">
+    <row r="3" spans="1:22" ht="17">
       <c r="A3" s="11">
         <v>2</v>
       </c>
@@ -1849,7 +1859,7 @@
       <c r="U3" s="1"/>
       <c r="V3" s="6"/>
     </row>
-    <row r="4" spans="1:22" ht="16.5">
+    <row r="4" spans="1:22" ht="17">
       <c r="A4" s="11">
         <v>3</v>
       </c>
@@ -1882,7 +1892,7 @@
       <c r="U4" s="1"/>
       <c r="V4" s="6"/>
     </row>
-    <row r="5" spans="1:22" ht="16.5">
+    <row r="5" spans="1:22" ht="17">
       <c r="A5" s="11">
         <v>4</v>
       </c>
@@ -1915,7 +1925,7 @@
       <c r="U5" s="1"/>
       <c r="V5" s="6"/>
     </row>
-    <row r="6" spans="1:22" ht="16.5">
+    <row r="6" spans="1:22" ht="17">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -1948,7 +1958,7 @@
       <c r="U6" s="1"/>
       <c r="V6" s="6"/>
     </row>
-    <row r="7" spans="1:22" ht="16.5">
+    <row r="7" spans="1:22" ht="17">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -1981,7 +1991,7 @@
       <c r="U7" s="1"/>
       <c r="V7" s="6"/>
     </row>
-    <row r="8" spans="1:22" ht="16.5">
+    <row r="8" spans="1:22" ht="17">
       <c r="A8" s="11">
         <v>7</v>
       </c>
@@ -2014,7 +2024,7 @@
       <c r="U8" s="1"/>
       <c r="V8" s="6"/>
     </row>
-    <row r="9" spans="1:22" ht="16.5">
+    <row r="9" spans="1:22" ht="17">
       <c r="A9" s="11">
         <v>8</v>
       </c>
@@ -2047,7 +2057,7 @@
       <c r="U9" s="1"/>
       <c r="V9" s="6"/>
     </row>
-    <row r="10" spans="1:22" ht="16.5">
+    <row r="10" spans="1:22" ht="17">
       <c r="A10" s="11">
         <v>9</v>
       </c>
@@ -2080,7 +2090,7 @@
       <c r="U10" s="1"/>
       <c r="V10" s="6"/>
     </row>
-    <row r="11" spans="1:22" ht="16.5">
+    <row r="11" spans="1:22" ht="17">
       <c r="A11" s="11">
         <v>10</v>
       </c>
@@ -2113,7 +2123,7 @@
       <c r="U11" s="1"/>
       <c r="V11" s="6"/>
     </row>
-    <row r="12" spans="1:22" ht="16.5">
+    <row r="12" spans="1:22" ht="17">
       <c r="A12" s="11">
         <v>11</v>
       </c>
@@ -2146,7 +2156,7 @@
       <c r="U12" s="1"/>
       <c r="V12" s="6"/>
     </row>
-    <row r="13" spans="1:22" ht="16.5">
+    <row r="13" spans="1:22" ht="17">
       <c r="A13" s="11">
         <v>12</v>
       </c>
@@ -2179,7 +2189,7 @@
       <c r="U13" s="1"/>
       <c r="V13" s="6"/>
     </row>
-    <row r="14" spans="1:22" ht="16.5">
+    <row r="14" spans="1:22" ht="17">
       <c r="A14" s="11">
         <v>13</v>
       </c>
@@ -2212,7 +2222,7 @@
       <c r="U14" s="1"/>
       <c r="V14" s="6"/>
     </row>
-    <row r="15" spans="1:22" ht="16.5">
+    <row r="15" spans="1:22" ht="17">
       <c r="A15" s="11">
         <v>14</v>
       </c>
@@ -2245,7 +2255,7 @@
       <c r="U15" s="1"/>
       <c r="V15" s="6"/>
     </row>
-    <row r="16" spans="1:22" ht="16.5">
+    <row r="16" spans="1:22" ht="17">
       <c r="A16" s="11">
         <v>15</v>
       </c>
@@ -2278,7 +2288,7 @@
       <c r="U16" s="1"/>
       <c r="V16" s="6"/>
     </row>
-    <row r="17" spans="1:22" ht="16.5">
+    <row r="17" spans="1:22" ht="17">
       <c r="A17" s="11">
         <v>16</v>
       </c>
@@ -2311,7 +2321,7 @@
       <c r="U17" s="8"/>
       <c r="V17" s="9"/>
     </row>
-    <row r="18" spans="1:22" ht="16.5">
+    <row r="18" spans="1:22" ht="17">
       <c r="A18" s="11">
         <v>17</v>
       </c>
@@ -2353,7 +2363,7 @@
       <c r="U18" s="8"/>
       <c r="V18" s="9"/>
     </row>
-    <row r="19" spans="1:22" ht="16.5">
+    <row r="19" spans="1:22" ht="17">
       <c r="A19" s="11">
         <v>18</v>
       </c>
@@ -2384,7 +2394,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="11"/>
     </row>
-    <row r="20" spans="1:22" ht="16.5">
+    <row r="20" spans="1:22" ht="17">
       <c r="A20" s="11">
         <v>19</v>
       </c>
@@ -2655,7 +2665,7 @@
       <selection activeCell="M1" sqref="M1:W1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="B1" t="s">
@@ -4298,9 +4308,9 @@
       <selection sqref="A1:I19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="16.5">
+    <row r="1" spans="1:9" ht="17">
       <c r="A1" s="11"/>
       <c r="B1" s="11" t="s">
         <v>8</v>
@@ -4327,7 +4337,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="16.5">
+    <row r="2" spans="1:9" ht="17">
       <c r="A2" s="11">
         <v>1</v>
       </c>
@@ -4352,7 +4362,7 @@
       <c r="H2" s="11"/>
       <c r="I2" s="11"/>
     </row>
-    <row r="3" spans="1:9" ht="16.5">
+    <row r="3" spans="1:9" ht="17">
       <c r="A3" s="11">
         <v>2</v>
       </c>
@@ -4377,7 +4387,7 @@
       <c r="H3" s="11"/>
       <c r="I3" s="11"/>
     </row>
-    <row r="4" spans="1:9" ht="16.5">
+    <row r="4" spans="1:9" ht="17">
       <c r="A4" s="11">
         <v>3</v>
       </c>
@@ -4402,7 +4412,7 @@
       <c r="H4" s="11"/>
       <c r="I4" s="11"/>
     </row>
-    <row r="5" spans="1:9" ht="16.5">
+    <row r="5" spans="1:9" ht="17">
       <c r="A5" s="11">
         <v>4</v>
       </c>
@@ -4427,7 +4437,7 @@
       <c r="H5" s="11"/>
       <c r="I5" s="11"/>
     </row>
-    <row r="6" spans="1:9" ht="16.5">
+    <row r="6" spans="1:9" ht="17">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -4452,7 +4462,7 @@
       <c r="H6" s="11"/>
       <c r="I6" s="11"/>
     </row>
-    <row r="7" spans="1:9" ht="16.5">
+    <row r="7" spans="1:9" ht="17">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -4477,7 +4487,7 @@
       <c r="H7" s="11"/>
       <c r="I7" s="11"/>
     </row>
-    <row r="8" spans="1:9" ht="16.5">
+    <row r="8" spans="1:9" ht="17">
       <c r="A8" s="11">
         <v>7</v>
       </c>
@@ -4502,7 +4512,7 @@
       <c r="H8" s="11"/>
       <c r="I8" s="11"/>
     </row>
-    <row r="9" spans="1:9" ht="16.5">
+    <row r="9" spans="1:9" ht="17">
       <c r="A9" s="11">
         <v>8</v>
       </c>
@@ -4527,7 +4537,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="11"/>
     </row>
-    <row r="10" spans="1:9" ht="16.5">
+    <row r="10" spans="1:9" ht="17">
       <c r="A10" s="11">
         <v>9</v>
       </c>
@@ -4552,7 +4562,7 @@
       <c r="H10" s="11"/>
       <c r="I10" s="11"/>
     </row>
-    <row r="11" spans="1:9" ht="16.5">
+    <row r="11" spans="1:9" ht="17">
       <c r="A11" s="11">
         <v>10</v>
       </c>
@@ -4577,7 +4587,7 @@
       <c r="H11" s="11"/>
       <c r="I11" s="11"/>
     </row>
-    <row r="12" spans="1:9" ht="16.5">
+    <row r="12" spans="1:9" ht="17">
       <c r="A12" s="11">
         <v>11</v>
       </c>
@@ -4602,7 +4612,7 @@
       <c r="H12" s="11"/>
       <c r="I12" s="11"/>
     </row>
-    <row r="13" spans="1:9" ht="16.5">
+    <row r="13" spans="1:9" ht="17">
       <c r="A13" s="11">
         <v>12</v>
       </c>
@@ -4627,7 +4637,7 @@
       <c r="H13" s="11"/>
       <c r="I13" s="11"/>
     </row>
-    <row r="14" spans="1:9" ht="16.5">
+    <row r="14" spans="1:9" ht="17">
       <c r="A14" s="11">
         <v>13</v>
       </c>
@@ -4652,7 +4662,7 @@
       <c r="H14" s="11"/>
       <c r="I14" s="11"/>
     </row>
-    <row r="15" spans="1:9" ht="16.5">
+    <row r="15" spans="1:9" ht="17">
       <c r="A15" s="11">
         <v>14</v>
       </c>
@@ -4677,7 +4687,7 @@
       <c r="H15" s="11"/>
       <c r="I15" s="11"/>
     </row>
-    <row r="16" spans="1:9" ht="16.5">
+    <row r="16" spans="1:9" ht="17">
       <c r="A16" s="11">
         <v>15</v>
       </c>
@@ -4702,7 +4712,7 @@
       <c r="H16" s="11"/>
       <c r="I16" s="11"/>
     </row>
-    <row r="17" spans="1:9" ht="16.5">
+    <row r="17" spans="1:9" ht="17">
       <c r="A17" s="11">
         <v>16</v>
       </c>
@@ -4727,7 +4737,7 @@
       <c r="H17" s="11"/>
       <c r="I17" s="11"/>
     </row>
-    <row r="18" spans="1:9" ht="16.5">
+    <row r="18" spans="1:9" ht="17">
       <c r="A18" s="11">
         <v>17</v>
       </c>
@@ -4752,7 +4762,7 @@
       <c r="H18" s="11"/>
       <c r="I18" s="11"/>
     </row>
-    <row r="19" spans="1:9" ht="16.5">
+    <row r="19" spans="1:9" ht="17">
       <c r="A19" s="11">
         <v>18</v>
       </c>
@@ -4791,9 +4801,9 @@
       <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="21">
+    <row r="1" spans="1:9" ht="24">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
         <v>8</v>
@@ -5246,22 +5256,55 @@
 </worksheet>
 </file>
 
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E53D66F3-CBF2-234C-83BF-30BB903AF579}">
+  <dimension ref="A1:K1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:K1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:11" ht="17">
+      <c r="A1" s="11"/>
+      <c r="B1" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100155B07917A39914F9664B9093559A33D" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="fbeff89c08116489e82681c46e7ae15d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f6191221-55a2-427d-afce-6bfcc029a585" xmlns:ns4="b60d6f15-5eb1-4c0b-bb71-d899d3bf026f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a905948312a67a3512ded1d64743b24d" ns3:_="" ns4:_="">
     <xsd:import namespace="f6191221-55a2-427d-afce-6bfcc029a585"/>
@@ -5478,32 +5521,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44668820-0664-4E62-A660-376AF03334EF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="b60d6f15-5eb1-4c0b-bb71-d899d3bf026f"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="f6191221-55a2-427d-afce-6bfcc029a585"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9421959D-9476-4FEC-BDFE-1367083D3EBE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CCEF473A-5319-4ED2-888F-44217AC86176}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5520,4 +5553,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44668820-0664-4E62-A660-376AF03334EF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="f6191221-55a2-427d-afce-6bfcc029a585"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="b60d6f15-5eb1-4c0b-bb71-d899d3bf026f"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9421959D-9476-4FEC-BDFE-1367083D3EBE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>